--- a/excel/parking_fee_202308.xlsx
+++ b/excel/parking_fee_202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>08/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>08/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>08/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>08/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>08/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>08/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>08/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>08/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>08/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>08/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>08/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>08/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>08/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>08/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>08/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>08/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>08/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>08/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>08/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>08/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>08/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>08/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>08/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>08/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>08/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>08/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>08/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>08/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>08/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>08/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>08/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,22 +615,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -635,7 +640,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -655,7 +660,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -665,7 +670,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -690,7 +695,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -700,54 +705,54 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>300</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>0</t>
@@ -760,12 +765,12 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -775,24 +780,29 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>1240</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -802,7 +812,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -817,12 +827,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -832,7 +842,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -877,7 +887,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -907,12 +917,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -947,24 +957,29 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>343</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1069,7 +1084,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1094,7 +1109,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>330</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1109,7 +1124,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1119,24 +1134,29 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>830</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1266,7 +1286,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>325</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1291,24 +1311,29 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>375</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1408,79 +1433,84 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>480</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>850</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1580,27 +1610,27 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>270</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>475</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1620,39 +1650,44 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1575</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1752,12 +1787,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1807,24 +1842,29 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>吳國彰</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Justin Wu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1904,12 +1944,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>230</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1924,7 +1964,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1939,12 +1979,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1964,7 +2004,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1974,29 +2014,34 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1430</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2096,12 +2141,12 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>310</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2151,24 +2196,29 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>310</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2268,12 +2318,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2323,24 +2373,29 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2440,7 +2495,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2450,69 +2505,74 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
           <t>150</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>1790</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2617,27 +2677,27 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>120</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2647,44 +2707,49 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>1125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2789,17 +2854,17 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2809,7 +2874,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>695</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2824,7 +2889,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2834,29 +2899,34 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>劉學仁</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Jason Liu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2891,7 +2961,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2956,7 +3026,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3011,24 +3081,29 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3128,12 +3203,12 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3143,7 +3218,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3163,17 +3238,17 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3183,24 +3258,29 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3300,12 +3380,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3320,7 +3400,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3335,44 +3415,49 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3472,27 +3557,27 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3507,44 +3592,49 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>440</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3649,12 +3739,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>105</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3664,7 +3754,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3679,7 +3769,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3689,34 +3779,39 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>105</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3816,12 +3911,12 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>225</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3871,24 +3966,29 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>225</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3998,17 +4098,17 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>80</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -4018,12 +4118,12 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>305</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
@@ -4033,34 +4133,39 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>271</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>1281</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4165,32 +4270,32 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>330</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4200,39 +4305,44 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>395</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>2155</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>林威宇</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Will Lin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4332,12 +4442,12 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>530</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4387,24 +4497,29 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>530</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>林彥廷</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Tim Lin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4504,12 +4619,12 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4559,24 +4674,29 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>275</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>陳楨紘</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Jane Chen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4676,29 +4796,29 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>0</t>
@@ -4706,7 +4826,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>310</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4716,39 +4836,44 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>1535</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4778,7 +4903,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4858,12 +4983,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -4898,29 +5023,34 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>780</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5020,7 +5150,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -5030,7 +5160,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -5075,24 +5205,29 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5192,27 +5327,27 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>220</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>370</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -5227,44 +5362,49 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>590</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5279,7 +5419,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5289,17 +5429,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5309,7 +5449,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5354,7 +5494,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -5364,7 +5504,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -5419,24 +5559,29 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>850</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5536,32 +5681,32 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5576,7 +5721,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -5586,29 +5731,34 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>740</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5708,32 +5858,32 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5743,44 +5893,49 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>175</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5880,17 +6035,17 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>290</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -5900,7 +6055,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -5915,44 +6070,49 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>290</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>林威宇</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Will Lin</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6052,22 +6212,22 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -6077,7 +6237,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>335</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -6092,39 +6252,44 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>1515</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6229,27 +6394,27 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>600</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>455</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -6264,39 +6429,44 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>230</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>720</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>2975</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6386,7 +6556,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6396,7 +6566,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -6451,24 +6621,29 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6553,12 +6728,12 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>450</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -6578,22 +6753,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -6608,39 +6783,44 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>1880</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>林彥廷</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tim Lin</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6730,7 +6910,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -6740,32 +6920,32 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6780,39 +6960,44 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>610</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>170</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>1975</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6902,42 +7087,42 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>205</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6952,39 +7137,44 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>590</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>2435</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7084,34 +7274,34 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>345</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
       <c r="AC39" t="inlineStr">
         <is>
           <t>0</t>
@@ -7119,44 +7309,49 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>230</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>2035</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>黃冠叡</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ray Huang</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7261,27 +7456,27 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>230</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>320</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>375</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -7296,39 +7491,44 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>245</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>2410</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7428,22 +7628,22 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>430</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -7463,17 +7663,17 @@
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -7483,24 +7683,29 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>430</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7605,27 +7810,27 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -7640,39 +7845,44 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>1545</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7772,27 +7982,27 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>165</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -7807,44 +8017,49 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>165</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7944,27 +8159,27 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>275</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>275</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -7979,44 +8194,49 @@
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>125</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>1200</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8106,7 +8326,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -8116,34 +8336,34 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>50</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
           <t>105</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC45" t="inlineStr">
         <is>
           <t>0</t>
@@ -8151,44 +8371,49 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>2415</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>695</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8293,74 +8518,79 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>780</t>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>1525</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8460,32 +8690,32 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -8500,39 +8730,44 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>1275</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8632,27 +8867,27 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -8667,44 +8902,49 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8804,12 +9044,12 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -8819,7 +9059,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -8859,24 +9099,29 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9011,7 +9256,7 @@
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
@@ -9026,29 +9271,34 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9158,7 +9408,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -9168,32 +9418,32 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -9203,24 +9453,29 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>730</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -9320,7 +9575,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -9335,17 +9590,17 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -9355,44 +9610,49 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>435</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9492,32 +9752,32 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -9532,12 +9792,12 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>344</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
@@ -9547,24 +9807,29 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>1109</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>劉家瑜</t>
+          <t>張晉榮</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Scott Liu</t>
+          <t>Barton Chang</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9664,7 +9929,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -9689,7 +9954,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -9704,12 +9969,12 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -9719,34 +9984,39 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>428</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -9756,7 +10026,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -9776,7 +10046,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -9786,7 +10056,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -9811,7 +10081,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -9821,12 +10091,12 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -9836,12 +10106,12 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -9851,12 +10121,12 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -9871,44 +10141,49 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>2878</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -10008,12 +10283,12 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>400</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -10023,12 +10298,12 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -10043,44 +10318,49 @@
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>400</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10180,27 +10460,27 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>370</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -10215,12 +10495,12 @@
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
@@ -10235,24 +10515,29 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>370</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10352,12 +10637,12 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>400</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -10387,44 +10672,49 @@
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>400</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10524,32 +10814,32 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>400</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>255</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -10559,44 +10849,49 @@
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>1790</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10696,32 +10991,32 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>425</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>340</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>475</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>365</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -10731,44 +11026,49 @@
       </c>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>410</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>425</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>425</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>3340</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>林育田</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kevin Lin</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10873,7 +11173,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -10893,7 +11193,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -10923,24 +11223,29 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11040,32 +11345,32 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
           <t>170</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
       <c r="Z62" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -11075,44 +11380,49 @@
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
           <t>240</t>
         </is>
       </c>
-      <c r="AF62" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>1780</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11212,17 +11522,17 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -11232,7 +11542,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -11267,39 +11577,44 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>440</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>245</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11339,7 +11654,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11364,7 +11679,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -11374,7 +11689,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -11384,7 +11699,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -11439,24 +11754,29 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>965</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>董宇珊</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Joanne Tung</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11556,79 +11876,84 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
           <t>225</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>935</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11733,27 +12058,27 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>285</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>305</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -11763,44 +12088,49 @@
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>170</t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11905,12 +12235,12 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -11920,12 +12250,12 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -11940,49 +12270,54 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>715</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -12022,7 +12357,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -12047,7 +12382,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -12057,7 +12392,7 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -12077,12 +12412,12 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -12092,12 +12427,12 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -12112,39 +12447,44 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>1410</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -12249,7 +12589,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -12279,99 +12619,99 @@
       </c>
       <c r="AD69" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>160</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>陳緯綺</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Vicky Chen</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>673</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>510</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -12391,27 +12731,27 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>810</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,320</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -12421,32 +12761,32 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,670</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,145</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,680</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>5,850</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>5,840</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,180</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
@@ -12456,194 +12796,27 @@
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,974</t>
         </is>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,455</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,501</t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>770</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>673</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>630</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>11,110</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>4,965</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>4,190</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>5,250</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>5,360</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>1,585</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>5,814</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>4,910</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>5,070</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>4,688</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>57,975</t>
+          <t>5,238</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>62,876</t>
         </is>
       </c>
     </row>

--- a/excel/parking_fee_202308.xlsx
+++ b/excel/parking_fee_202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI70"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1645</t>
         </is>
       </c>
     </row>
@@ -1797,17 +1797,17 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>185</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>145</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>1580</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>415</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>305</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2181,27 +2181,27 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>325</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>2750</t>
         </is>
       </c>
     </row>
@@ -2328,17 +2328,17 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2358,27 +2358,27 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1150</t>
         </is>
       </c>
     </row>
@@ -2505,27 +2505,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>505</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>390</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2535,27 +2535,27 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3095</t>
         </is>
       </c>
     </row>
@@ -3031,27 +3031,27 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>485</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3066,27 +3066,27 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>145</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -3213,22 +3213,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3243,17 +3243,17 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>170</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1055</t>
         </is>
       </c>
     </row>
@@ -3390,22 +3390,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3420,27 +3420,27 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1285</t>
         </is>
       </c>
     </row>
@@ -3572,17 +3572,17 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>675</t>
         </is>
       </c>
     </row>
@@ -3744,22 +3744,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>385</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3774,12 +3774,12 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3789,12 +3789,12 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>1535</t>
         </is>
       </c>
     </row>
@@ -3921,22 +3921,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3951,27 +3951,27 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>190</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1675</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>540</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1821</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4452,17 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>420</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>450</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4482,27 +4482,27 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>385</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>435</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>530</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>515</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>3705</t>
         </is>
       </c>
     </row>
@@ -4629,17 +4629,17 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>310</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4659,27 +4659,27 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>330</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>1705</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -5205,12 +5205,12 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>780</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5337,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5382,12 +5382,12 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>1625</t>
         </is>
       </c>
     </row>
@@ -5509,27 +5509,27 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -5564,24 +5564,24 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1590</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5686,27 +5686,27 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -5741,24 +5741,24 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>175</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0AA41</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5873,17 +5873,17 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>325</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5898,39 +5898,39 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1915</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6040,27 +6040,27 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>220</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>335</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -6075,44 +6075,44 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>1610</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6217,27 +6217,27 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>600</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>300</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>455</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -6252,39 +6252,39 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>230</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>720</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>2975</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -6394,27 +6394,27 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>135</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>160</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -6429,39 +6429,39 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>1725</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>450</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6571,27 +6571,27 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>265</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -6606,39 +6606,39 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>2145</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -6748,74 +6748,74 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>155</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>1975</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6910,12 +6910,12 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -6925,27 +6925,27 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
           <t>200</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>205</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6960,39 +6960,39 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>590</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
           <t>170</t>
         </is>
       </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7087,12 +7087,12 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -7102,27 +7102,27 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>240</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>345</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>255</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -7137,44 +7137,44 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>230</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
           <t>290</t>
         </is>
       </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2035</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7279,27 +7279,27 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>230</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>320</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>375</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>275</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -7314,39 +7314,39 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>245</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>2410</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>430</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -7466,17 +7466,17 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>325</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -7491,12 +7491,12 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>420</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -7506,24 +7506,24 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>745</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7633,27 +7633,27 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>220</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -7668,39 +7668,39 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1545</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7810,74 +7810,74 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>165</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1215</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7987,27 +7987,27 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>275</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -8022,17 +8022,17 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
@@ -8042,24 +8042,24 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>1375</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -8164,27 +8164,27 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>50</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -8199,39 +8199,39 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>695</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -8341,27 +8341,27 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>430</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>170</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -8376,39 +8376,39 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>1525</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8518,22 +8518,22 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -8553,44 +8553,44 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>420</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>1455</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -8710,12 +8710,12 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -8740,34 +8740,34 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>195</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8872,27 +8872,27 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -8907,17 +8907,17 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
@@ -8927,24 +8927,24 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>2265</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0AA61</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
@@ -9104,24 +9104,24 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0AA9</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9246,12 +9246,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -9266,12 +9266,12 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
@@ -9281,24 +9281,24 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>730</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0AA940</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -9423,12 +9423,12 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
@@ -9438,12 +9438,12 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -9458,19 +9458,19 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>435</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9580,22 +9580,22 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -9615,12 +9615,12 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>344</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
@@ -9635,24 +9635,24 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1109</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>張晉榮</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Barton Chang</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9757,89 +9757,89 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
         <is>
           <t>90</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>1109</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>張晉榮</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Barton Chang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>428</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -9914,12 +9914,12 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -9934,12 +9934,12 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>525</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -9969,39 +9969,39 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>190</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>5133</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10011,12 +10011,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -10091,12 +10091,12 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -10111,27 +10111,27 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>370</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -10146,39 +10146,39 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>215</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>185</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>2165</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>475</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>480</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -10323,39 +10323,39 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>600</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>620</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>3875</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10465,27 +10465,27 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>400</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>255</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -10500,39 +10500,39 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1790</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10647,22 +10647,22 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>340</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>475</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>365</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -10677,44 +10677,44 @@
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>475</t>
         </is>
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>3740</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10819,27 +10819,27 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>170</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>275</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>355</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -10854,44 +10854,44 @@
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>350</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>1880</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10996,27 +10996,27 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>170</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -11031,39 +11031,39 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>1780</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11173,12 +11173,12 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -11228,39 +11228,39 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>440</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>245</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -11350,79 +11350,79 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE62" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AF62" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>1900</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11527,94 +11527,94 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>285</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
           <t>140</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>170</t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -11704,12 +11704,12 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -11719,12 +11719,12 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -11739,44 +11739,44 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>715</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11881,12 +11881,12 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -11896,12 +11896,12 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -11916,39 +11916,39 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>155</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>1410</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -12058,12 +12058,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>160</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>565</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -12073,12 +12073,12 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -12093,99 +12093,94 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>180</t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1435</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>673</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>510</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -12205,27 +12200,27 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>810</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,320</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -12235,32 +12230,32 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>12,750</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>9,950</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9,355</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>12,130</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>9,110</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,135</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr">
@@ -12270,553 +12265,27 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10,249</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>9,640</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10,411</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>11,198</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>715</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>蔡明彬</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE68" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="AG68" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="AI68" t="inlineStr">
-        <is>
-          <t>1410</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>673</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>810</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>1,320</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>10,670</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>5,145</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>4,680</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>5,850</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>5,840</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>2,180</t>
-        </is>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE70" t="inlineStr">
-        <is>
-          <t>5,974</t>
-        </is>
-      </c>
-      <c r="AF70" t="inlineStr">
-        <is>
-          <t>5,455</t>
-        </is>
-      </c>
-      <c r="AG70" t="inlineStr">
-        <is>
-          <t>5,501</t>
-        </is>
-      </c>
-      <c r="AH70" t="inlineStr">
-        <is>
-          <t>5,238</t>
-        </is>
-      </c>
-      <c r="AI70" t="inlineStr">
-        <is>
-          <t>62,876</t>
+          <t>105,271</t>
         </is>
       </c>
     </row>
